--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81ACBD27-92CD-4A85-931A-3511B43EA301}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB35E1F-4C7D-44BC-AF9B-CA9CE92B8F15}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11626" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t xml:space="preserve">Operation KLTS Taman Beringin </t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Dituntut Oleh:</t>
-  </si>
-  <si>
-    <t>Saiful Nizam Bin Ahmad Sahari</t>
   </si>
   <si>
     <t>Pemandu PM</t>
@@ -1085,9 +1082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>317188</xdr:colOff>
+      <xdr:colOff>324808</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>428624</xdr:rowOff>
+      <xdr:rowOff>440054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1459,26 +1456,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229CC07-A0BA-4B95-84B3-5CE0036BCFCA}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="14.64453125" customWidth="1"/>
-    <col min="3" max="3" width="20.87890625" customWidth="1"/>
-    <col min="4" max="4" width="19.1171875" customWidth="1"/>
-    <col min="5" max="5" width="22.52734375" customWidth="1"/>
-    <col min="6" max="6" width="22.64453125" customWidth="1"/>
-    <col min="7" max="7" width="24.1171875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="24.1171875" customWidth="1"/>
-    <col min="10" max="10" width="21.64453125" customWidth="1"/>
-    <col min="11" max="11" width="105.1171875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="105.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1489,7 @@
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
     </row>
-    <row r="3" spans="2:11" ht="80.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
@@ -1506,8 +1503,8 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
     </row>
-    <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1518,13 +1515,13 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="6" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1538,7 +1535,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1550,8 +1547,8 @@
       <c r="J7" s="94"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="2:11" ht="71.45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
         <v>5</v>
       </c>
@@ -1568,22 +1565,22 @@
         <v>9</v>
       </c>
       <c r="G9" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="I9" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="85" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>40</v>
       </c>
       <c r="K9" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="98"/>
       <c r="C10" s="100"/>
       <c r="D10" s="102"/>
@@ -1599,7 +1596,7 @@
       <c r="J10" s="86"/>
       <c r="K10" s="88"/>
     </row>
-    <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
         <v>1</v>
       </c>
@@ -1615,7 +1612,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="12" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="16">
         <f>B11+1</f>
         <v>2</v>
@@ -1628,11 +1625,11 @@
       <c r="F12" s="17"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="13" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="18">
         <f t="shared" ref="B13:B41" si="0">B12+1</f>
         <v>3</v>
@@ -1645,11 +1642,11 @@
       <c r="F13" s="19"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="14" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1662,11 +1659,11 @@
       <c r="F14" s="17"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="15" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1679,11 +1676,11 @@
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="16" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1696,11 +1693,11 @@
       <c r="F16" s="17"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="17" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1713,11 +1710,11 @@
       <c r="F17" s="17"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="18" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1730,11 +1727,11 @@
       <c r="F18" s="17"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="19" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1747,11 +1744,11 @@
       <c r="F19" s="17"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="20" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1764,11 +1761,11 @@
       <c r="F20" s="17"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="21" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1781,11 +1778,11 @@
       <c r="F21" s="17"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="22" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1798,11 +1795,11 @@
       <c r="F22" s="17"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="23" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1815,11 +1812,11 @@
       <c r="F23" s="17"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="24" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1832,11 +1829,11 @@
       <c r="F24" s="17"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="25" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1849,11 +1846,11 @@
       <c r="F25" s="17"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="26" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1866,11 +1863,11 @@
       <c r="F26" s="17"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="27" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1883,11 +1880,11 @@
       <c r="F27" s="17"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="28" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1900,11 +1897,11 @@
       <c r="F28" s="17"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="29" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1917,11 +1914,11 @@
       <c r="F29" s="19"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="30" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1934,11 +1931,11 @@
       <c r="F30" s="19"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="31" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1951,11 +1948,11 @@
       <c r="F31" s="19"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="32" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1968,11 +1965,11 @@
       <c r="F32" s="17"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="33" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1985,11 +1982,11 @@
       <c r="F33" s="17"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="34" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2002,11 +1999,11 @@
       <c r="F34" s="19"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="35" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2019,11 +2016,11 @@
       <c r="F35" s="19"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="36" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2036,11 +2033,11 @@
       <c r="F36" s="19"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="37" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2053,11 +2050,11 @@
       <c r="F37" s="19"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2070,11 +2067,11 @@
       <c r="F38" s="19"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="2:11" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="1">
+    <row r="39" spans="2:11" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2087,11 +2084,11 @@
       <c r="F39" s="23"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="1">
+    <row r="40" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2104,11 +2101,11 @@
       <c r="F40" s="19"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="2:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="41" spans="2:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2121,11 +2118,11 @@
       <c r="F41" s="19"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="77" t="s">
         <v>20</v>
       </c>
@@ -2151,7 +2148,7 @@
       </c>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="2:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="43" spans="2:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2165,7 @@
       <c r="J43" s="80"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
@@ -2180,7 +2177,7 @@
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
     </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="1">
+    <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
@@ -2192,7 +2189,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="47" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="40" t="s">
         <v>22</v>
       </c>
@@ -2206,7 +2203,7 @@
       <c r="J47" s="46"/>
       <c r="K47" s="46"/>
     </row>
-    <row r="48" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="48" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="48"/>
       <c r="C48" s="44"/>
       <c r="D48" s="45"/>
@@ -2218,7 +2215,7 @@
       <c r="J48" s="47"/>
       <c r="K48" s="47"/>
     </row>
-    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="48"/>
       <c r="C49" s="44"/>
       <c r="D49" s="45"/>
@@ -2230,10 +2227,8 @@
       <c r="J49" s="51"/>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="1">
-      <c r="B50" s="48" t="s">
-        <v>23</v>
-      </c>
+    <row r="50" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="48"/>
       <c r="C50" s="45"/>
       <c r="D50" s="44"/>
       <c r="E50" s="52"/>
@@ -2244,9 +2239,9 @@
       <c r="J50" s="47"/>
       <c r="K50" s="47"/>
     </row>
-    <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="1">
+    <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="55"/>
@@ -2258,7 +2253,7 @@
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -2270,27 +2265,27 @@
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
     </row>
-    <row r="53" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="60"/>
       <c r="E53" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K53" s="64"/>
     </row>
-    <row r="54" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="48"/>
       <c r="C54" s="44"/>
       <c r="D54" s="52"/>
@@ -2302,7 +2297,7 @@
       <c r="J54" s="67"/>
       <c r="K54" s="68"/>
     </row>
-    <row r="55" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="48"/>
       <c r="C55" s="44"/>
       <c r="D55" s="52"/>
@@ -2314,43 +2309,43 @@
       <c r="J55" s="70"/>
       <c r="K55" s="68"/>
     </row>
-    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="1">
+    <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="49"/>
       <c r="E56" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" s="45"/>
       <c r="G56" s="45"/>
       <c r="H56" s="65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="68"/>
+    </row>
+    <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="53" t="s">
         <v>32</v>
-      </c>
-      <c r="K56" s="68"/>
-    </row>
-    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="1">
-      <c r="B57" s="53" t="s">
-        <v>33</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="72"/>
       <c r="E57" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="H57" s="73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57" s="74"/>
       <c r="J57" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" s="76"/>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB35E1F-4C7D-44BC-AF9B-CA9CE92B8F15}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01D23C3-B34D-42ED-AB29-0880DF9FFA91}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Dituntut Oleh:</t>
   </si>
   <si>
-    <t>Pemandu PM</t>
-  </si>
-  <si>
     <t>Disediakan Oleh:</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Jumlah Silo (11 - 30)</t>
+  </si>
+  <si>
+    <t>Pemandu</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -975,6 +975,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -993,64 +1050,13 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,9 +1088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>324808</xdr:colOff>
+      <xdr:colOff>320998</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>440054</xdr:rowOff>
+      <xdr:rowOff>436244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1456,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229CC07-A0BA-4B95-84B3-5CE0036BCFCA}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,32 +1482,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1521,17 +1527,17 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="95">
+      <c r="J6" s="83"/>
+      <c r="K6" s="86">
         <v>45474</v>
       </c>
     </row>
@@ -1543,19 +1549,19 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="96"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="92" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1564,37 +1570,37 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="83" t="s">
+      <c r="G9" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="I9" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="78" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="88"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
@@ -1608,7 +1614,6 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
     </row>
@@ -2123,10 +2128,10 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
@@ -2142,8 +2147,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="79">
-        <f t="shared" si="1"/>
+      <c r="J42" s="98">
+        <f>SUM(J11:J41)</f>
         <v>0</v>
       </c>
       <c r="K42" s="30"/>
@@ -2154,15 +2159,15 @@
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="81">
-        <f>SUM(G42:I42)</f>
+      <c r="E43" s="100">
+        <f>SUM(G42:H42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="80"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="99"/>
       <c r="K43" s="30"/>
     </row>
     <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2241,7 +2246,7 @@
     </row>
     <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="53" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="55"/>
@@ -2267,21 +2272,21 @@
     </row>
     <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="41"/>
       <c r="D53" s="60"/>
       <c r="E53" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="62"/>
       <c r="J53" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53" s="64"/>
     </row>
@@ -2311,46 +2316,51 @@
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="49"/>
       <c r="E56" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F56" s="45"/>
       <c r="G56" s="45"/>
       <c r="H56" s="65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K56" s="68"/>
     </row>
     <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="72"/>
       <c r="E57" s="73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
       <c r="H57" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="74"/>
       <c r="J57" s="75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K57" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E43:H43"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2361,11 +2371,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01D23C3-B34D-42ED-AB29-0880DF9FFA91}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0190CF15-75BA-415D-9C30-FB47B14573E3}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -761,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -843,9 +843,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,9 +972,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,39 +1051,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1457,7 @@
   <dimension ref="B2:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,32 +1476,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1533,11 +1527,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="86">
+      <c r="J6" s="92"/>
+      <c r="K6" s="95">
         <v>45474</v>
       </c>
     </row>
@@ -1549,19 +1543,19 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="87"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="101" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1570,37 +1564,37 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="78" t="s">
+      <c r="K9" s="87" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="89"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="79"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="88"/>
     </row>
     <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
@@ -2128,239 +2122,234 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="97"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
       <c r="G42" s="28">
-        <f t="shared" ref="G42:J42" si="1">SUM(G11:G41)</f>
+        <f t="shared" ref="G42:I42" si="1">SUM(G11:G41)</f>
         <v>0</v>
       </c>
       <c r="H42" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="98">
+      <c r="J42" s="78">
         <f>SUM(J11:J41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="30"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="100">
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="84">
         <f>SUM(G42:H42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="30"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="48"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
     </row>
     <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="48"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="48"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
     </row>
     <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="40" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="61" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="62"/>
-      <c r="J53" s="63" t="s">
+      <c r="I53" s="61"/>
+      <c r="J53" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="64"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="48"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="68"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="67"/>
     </row>
     <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="48"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="68"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="65" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="65" t="s">
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="49"/>
-      <c r="J56" s="71" t="s">
+      <c r="I56" s="48"/>
+      <c r="J56" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="68"/>
+      <c r="K56" s="67"/>
     </row>
     <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="73" t="s">
+      <c r="C57" s="54"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="73" t="s">
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="75" t="s">
+      <c r="I57" s="73"/>
+      <c r="J57" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="76"/>
+      <c r="K57" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E43:H43"/>
+  <mergeCells count="16">
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2371,6 +2360,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0190CF15-75BA-415D-9C30-FB47B14573E3}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923851F0-8525-4DF3-99EE-459F8F6196FA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
@@ -972,6 +972,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -984,12 +1038,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,54 +1051,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229CC07-A0BA-4B95-84B3-5CE0036BCFCA}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,32 +1476,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1527,11 +1527,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="95">
+      <c r="J6" s="81"/>
+      <c r="K6" s="84">
         <v>45474</v>
       </c>
     </row>
@@ -1543,19 +1543,19 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="96"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="90" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1564,37 +1564,37 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="88"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="77"/>
     </row>
     <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
@@ -1608,6 +1608,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
     </row>
@@ -2122,10 +2123,10 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="77"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
@@ -2137,11 +2138,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="78">
+      <c r="I42" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="78">
+      <c r="J42" s="96">
         <f>SUM(J11:J41)</f>
         <v>0</v>
       </c>
@@ -2153,15 +2154,15 @@
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="84">
+      <c r="E43" s="100">
         <f>SUM(G42:H42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2350,6 +2351,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I42:I43"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2360,12 +2367,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{923851F0-8525-4DF3-99EE-459F8F6196FA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3039B9D9-B2C1-4A7D-A191-39EA2C874621}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t xml:space="preserve">Operation KLTS Taman Beringin </t>
   </si>
@@ -160,18 +160,31 @@
   </si>
   <si>
     <t>Pemandu</t>
+  </si>
+  <si>
+    <t>SHUMIMI BIN MOHD NOR</t>
+  </si>
+  <si>
+    <t>Diluluskan Oleh:</t>
+  </si>
+  <si>
+    <t>Soo Kam Heng</t>
+  </si>
+  <si>
+    <t>General Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-14409]hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,14 +269,37 @@
     <font>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -757,11 +793,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -869,109 +906,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,41 +1002,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="1" xr:uid="{83A598A4-3A0B-4BD3-A41F-FCEBBF8E1338}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1456,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229CC07-A0BA-4B95-84B3-5CE0036BCFCA}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,32 +1538,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1527,11 +1589,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="84">
+      <c r="J6" s="60"/>
+      <c r="K6" s="63">
         <v>45474</v>
       </c>
     </row>
@@ -1543,19 +1605,19 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="85"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="69" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1564,37 +1626,37 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="92" t="s">
+      <c r="I9" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="91"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="77"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
@@ -2123,10 +2185,10 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="95"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
@@ -2138,11 +2200,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="96">
+      <c r="I42" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="96">
+      <c r="J42" s="46">
         <f>SUM(J11:J41)</f>
         <v>0</v>
       </c>
@@ -2154,15 +2216,15 @@
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="100">
+      <c r="E43" s="52">
         <f>SUM(G42:H42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2190,173 +2252,175 @@
       <c r="K45" s="38"/>
     </row>
     <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="73"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
     </row>
     <row r="48" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="47"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
     </row>
     <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="47"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="47"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
+      <c r="B50" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="79"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="83"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
     </row>
     <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="88"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
     </row>
     <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="39" t="s">
+      <c r="B53" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="60" t="s">
+      <c r="C53" s="72"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="I53" s="61"/>
-      <c r="J53" s="62" t="s">
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="93"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="K53" s="63"/>
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="47"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="67"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="99"/>
     </row>
     <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="47"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="67"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="101"/>
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="64" t="s">
+      <c r="B56" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="64" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="48"/>
-      <c r="J56" s="70" t="s">
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="78"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="67"/>
     </row>
     <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="72" t="s">
+      <c r="B57" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="72" t="s">
+      <c r="C57" s="86"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="73"/>
-      <c r="J57" s="74" t="s">
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="106"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="K57" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I42:I43"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2367,6 +2431,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b9955a831199de8/3. Work Profile/Own Projects/Sideline/3. Sideline/Projects/1. Eizman Name Manager/2024 File/Final Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3039B9D9-B2C1-4A7D-A191-39EA2C874621}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{595D681F-05FE-4713-844D-421F0264A27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8786713-6E3E-49E7-9E8D-777A167EB61D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B66A494A-89D3-4F2E-BD67-C7D1961500F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t xml:space="preserve">Operation KLTS Taman Beringin </t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Pemandu</t>
-  </si>
-  <si>
-    <t>SHUMIMI BIN MOHD NOR</t>
   </si>
   <si>
     <t>Diluluskan Oleh:</t>
@@ -921,6 +918,172 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -933,12 +1096,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,166 +1110,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1518,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2229CC07-A0BA-4B95-84B3-5CE0036BCFCA}">
   <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,32 +1535,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="2:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
     </row>
     <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1589,11 +1586,11 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="63">
+      <c r="J6" s="87"/>
+      <c r="K6" s="90">
         <v>45474</v>
       </c>
     </row>
@@ -1605,19 +1602,19 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="64"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="91"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="96" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1626,37 +1623,37 @@
       <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="82" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="66"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="56"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="83"/>
     </row>
     <row r="11" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9">
@@ -2185,10 +2182,10 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:11" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="45"/>
+      <c r="C42" s="101"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
@@ -2200,11 +2197,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="102">
         <f>SUM(J11:J41)</f>
         <v>0</v>
       </c>
@@ -2216,15 +2213,15 @@
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="52">
+      <c r="E43" s="106">
         <f>SUM(G42:H42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2252,175 +2249,182 @@
       <c r="K45" s="38"/>
     </row>
     <row r="47" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="71" t="s">
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="73"/>
-      <c r="H47" s="75"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
     </row>
     <row r="48" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="81"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="82"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="55"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
     </row>
     <row r="50" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="77" t="s">
+      <c r="B50" s="50">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="83"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="78"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="51"/>
       <c r="J50" s="39"/>
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="84" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="88"/>
-      <c r="H51" s="89"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="41"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="92" t="s">
+      <c r="C53" s="45"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="93"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="95" t="s">
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="66"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="98"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="71"/>
       <c r="I54" s="39"/>
       <c r="J54" s="42"/>
-      <c r="K54" s="99"/>
+      <c r="K54" s="72"/>
     </row>
     <row r="55" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="100"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="73"/>
       <c r="I55" s="40"/>
       <c r="J55" s="43"/>
-      <c r="K55" s="101"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="96" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="102" t="s">
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="51"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="59"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="I56" s="78"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="I57" s="106"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108" t="s">
+      <c r="I57" s="79"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="81" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I42:I43"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -2431,12 +2435,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I42:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
